--- a/ArticleManage/main_working_folder/output_folders/Data 64 Effects of oxygen content/Data64_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 64 Effects of oxygen content/Data64_all_graphs_excel.xlsx
@@ -5,10 +5,10 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="ETP-200-ACF" sheetId="1" r:id="rId1"/>
-    <sheet name="ETP-250-ACF" sheetId="2" r:id="rId4"/>
-    <sheet name="ETP-300-ACF" sheetId="3" r:id="rId5"/>
-    <sheet name="ETP-ACF" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2 ETP-200-ACF  0-1-0-300" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 ETP-250-ACF  0-1-0-300" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 ETP-300-ACF  0-1-0-300" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 ETP-ACF  0-1-0-300 " sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -109,7 +109,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ETP-200-ACF</a:t>
+              <a:t>Izoterma adsorpcji probki ETP-200-ACF z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -168,12 +168,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'ETP-200-ACF'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 ETP-200-ACF  0-1-0-300'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ETP-200-ACF'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 ETP-200-ACF  0-1-0-300'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -186,6 +186,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -255,6 +257,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -419,7 +423,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ETP-250-ACF</a:t>
+              <a:t>Izoterma adsorpcji probki ETP-250-ACF z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -478,12 +482,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'ETP-250-ACF'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 ETP-250-ACF  0-1-0-300'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ETP-250-ACF'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 ETP-250-ACF  0-1-0-300'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -496,6 +500,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -565,6 +571,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -729,7 +737,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ETP-300-ACF</a:t>
+              <a:t>Izoterma adsorpcji probki ETP-300-ACF z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -788,12 +796,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'ETP-300-ACF'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 ETP-300-ACF  0-1-0-300'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ETP-300-ACF'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 ETP-300-ACF  0-1-0-300'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -806,6 +814,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -875,6 +885,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1039,7 +1051,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ETP-ACF</a:t>
+              <a:t>Izoterma adsorpcji probki ETP-ACF z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1098,12 +1110,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'ETP-ACF'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 ETP-ACF  0-1-0-300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ETP-ACF'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 ETP-ACF  0-1-0-300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1116,6 +1128,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1185,6 +1199,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 64 Effects of oxygen content/Data64_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 64 Effects of oxygen content/Data64_all_graphs_excel.xlsx
@@ -4013,7 +4013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4034,453 +4034,285 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.06</v>
+        <v>0.9944</v>
       </c>
       <c r="B3" s="0">
-        <v>251.7001</v>
+        <v>260.1955</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.08</v>
+        <v>0.9761</v>
       </c>
       <c r="B4" s="0">
-        <v>254.1691</v>
+        <v>259.7765</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1</v>
+        <v>0.9428</v>
       </c>
       <c r="B5" s="0">
-        <v>255.5066</v>
+        <v>260.1955</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.12</v>
+        <v>0.9061</v>
       </c>
       <c r="B6" s="0">
-        <v>256.5399</v>
+        <v>260.1955</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.14</v>
+        <v>0.8729</v>
       </c>
       <c r="B7" s="0">
-        <v>257.35</v>
+        <v>260.1955</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.16</v>
+        <v>0.8373</v>
       </c>
       <c r="B8" s="0">
-        <v>258.0122</v>
+        <v>260.6145</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.18</v>
+        <v>0.8006</v>
       </c>
       <c r="B9" s="0">
-        <v>258.4143</v>
+        <v>260.6145</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2</v>
+        <v>0.7662</v>
       </c>
       <c r="B10" s="0">
-        <v>258.8551</v>
+        <v>260.6145</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.22</v>
+        <v>0.7329</v>
       </c>
       <c r="B11" s="0">
-        <v>259.1812</v>
+        <v>261.0335</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.24</v>
+        <v>0.6974</v>
       </c>
       <c r="B12" s="0">
-        <v>259.5611</v>
+        <v>260.6145</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.26</v>
+        <v>0.6618</v>
       </c>
       <c r="B13" s="0">
-        <v>259.9103</v>
+        <v>261.0335</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.28</v>
+        <v>0.6263</v>
       </c>
       <c r="B14" s="0">
-        <v>260.1488</v>
+        <v>261.0335</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3</v>
+        <v>0.5919</v>
       </c>
       <c r="B15" s="0">
-        <v>260.3162</v>
+        <v>261.0335</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.32</v>
+        <v>0.5575</v>
       </c>
       <c r="B16" s="0">
-        <v>260.4461</v>
+        <v>261.4525</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.34</v>
+        <v>0.5013</v>
       </c>
       <c r="B17" s="0">
-        <v>260.5276</v>
+        <v>261.4525</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.36</v>
+        <v>0.468</v>
       </c>
       <c r="B18" s="0">
-        <v>260.61</v>
+        <v>261.0335</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.38</v>
+        <v>0.4325</v>
       </c>
       <c r="B19" s="0">
-        <v>260.7504</v>
+        <v>261.0335</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4</v>
+        <v>0.3981</v>
       </c>
       <c r="B20" s="0">
-        <v>260.8313</v>
+        <v>261.0335</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.42</v>
+        <v>0.3625</v>
       </c>
       <c r="B21" s="0">
-        <v>260.8634</v>
+        <v>260.6145</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.44</v>
+        <v>0.3235</v>
       </c>
       <c r="B22" s="0">
-        <v>260.9194</v>
+        <v>260.1955</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.46</v>
+        <v>0.2926</v>
       </c>
       <c r="B23" s="0">
-        <v>261.0012</v>
+        <v>260.6145</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.48</v>
+        <v>0.2547</v>
       </c>
       <c r="B24" s="0">
-        <v>261.0396</v>
+        <v>259.7765</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.5</v>
+        <v>0.2238</v>
       </c>
       <c r="B25" s="0">
-        <v>260.9833</v>
+        <v>259.7765</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.52</v>
+        <v>0.2066</v>
       </c>
       <c r="B26" s="0">
-        <v>260.96</v>
+        <v>259.3575</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.54</v>
+        <v>0.1917</v>
       </c>
       <c r="B27" s="0">
-        <v>261.0114</v>
+        <v>258.5196</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.56</v>
+        <v>0.1745</v>
       </c>
       <c r="B28" s="0">
-        <v>260.9657</v>
+        <v>258.1006</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.58</v>
+        <v>0.1607</v>
       </c>
       <c r="B29" s="0">
-        <v>260.9563</v>
+        <v>257.6816</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6</v>
+        <v>0.1263</v>
       </c>
       <c r="B30" s="0">
-        <v>260.9891</v>
+        <v>256.8436</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.62</v>
+        <v>0.0908</v>
       </c>
       <c r="B31" s="0">
-        <v>260.9192</v>
+        <v>255.5866</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.64</v>
+        <v>0.0483</v>
       </c>
       <c r="B32" s="0">
-        <v>260.9223</v>
+        <v>251.8156</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.66</v>
+        <v>0.0254</v>
       </c>
       <c r="B33" s="0">
-        <v>260.9205</v>
+        <v>247.2067</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.68</v>
+        <v>0.0014</v>
       </c>
       <c r="B34" s="0">
-        <v>260.784</v>
+        <v>227.514</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.7</v>
+        <v>0.0004</v>
       </c>
       <c r="B35" s="0">
-        <v>260.7138</v>
+        <v>193.5754</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.72</v>
+        <v>-0.0018</v>
       </c>
       <c r="B36" s="0">
-        <v>260.6513</v>
+        <v>178.0726</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.74</v>
+        <v>-0.0006</v>
       </c>
       <c r="B37" s="0">
-        <v>260.5605</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B38" s="0">
-        <v>260.5423</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B39" s="0">
-        <v>260.5426</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B40" s="0">
-        <v>260.4838</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B41" s="0">
-        <v>260.3413</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B42" s="0">
-        <v>260.1249</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B43" s="0">
-        <v>260.0026</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B44" s="0">
-        <v>260.0223</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B45" s="0">
-        <v>259.9987</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B46" s="0">
-        <v>259.9293</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B47" s="0">
-        <v>259.8862</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B48" s="0">
-        <v>259.8712</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B49" s="0">
-        <v>259.8981</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0289</v>
-      </c>
-      <c r="B50" s="0">
-        <v>247.2067</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0449</v>
-      </c>
-      <c r="B51" s="0">
-        <v>250.1397</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.006</v>
-      </c>
-      <c r="B52" s="0">
-        <v>228.352</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>-0.0007</v>
-      </c>
-      <c r="B53" s="0">
-        <v>193.1564</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>-0.0007</v>
-      </c>
-      <c r="B54" s="0">
-        <v>177.6536</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>-0.0018</v>
-      </c>
-      <c r="B55" s="0">
-        <v>163.4078</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>-0.0004</v>
-      </c>
-      <c r="B56" s="0">
-        <v>93.0168</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="B57" s="0">
-        <v>79.6089</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0">
-        <v>-0.0002</v>
-      </c>
-      <c r="B58" s="0">
-        <v>38.5475</v>
-      </c>
-    </row>
-    <row r="59"/>
+        <v>163.8268</v>
+      </c>
+    </row>
+    <row r="38"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4489,7 +4321,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4510,477 +4342,333 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.992</v>
       </c>
       <c r="B3" s="0">
-        <v>242.204</v>
+        <v>296.648</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.08</v>
+        <v>0.9748</v>
       </c>
       <c r="B4" s="0">
-        <v>288.0167</v>
+        <v>296.2291</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1</v>
+        <v>0.9415</v>
       </c>
       <c r="B5" s="0">
-        <v>289.3612</v>
+        <v>295.8101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.12</v>
+        <v>0.9071</v>
       </c>
       <c r="B6" s="0">
-        <v>290.5389</v>
+        <v>296.2291</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.14</v>
+        <v>0.8727</v>
       </c>
       <c r="B7" s="0">
-        <v>291.7568</v>
+        <v>296.2291</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.16</v>
+        <v>0.8372</v>
       </c>
       <c r="B8" s="0">
-        <v>292.9041</v>
+        <v>296.2291</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.18</v>
+        <v>0.8016</v>
       </c>
       <c r="B9" s="0">
-        <v>293.7432</v>
+        <v>296.2291</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2</v>
+        <v>0.7672</v>
       </c>
       <c r="B10" s="0">
-        <v>294.0855</v>
+        <v>296.648</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.22</v>
+        <v>0.7328</v>
       </c>
       <c r="B11" s="0">
-        <v>294.3425</v>
+        <v>297.067</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.24</v>
+        <v>0.6973</v>
       </c>
       <c r="B12" s="0">
-        <v>294.3536</v>
+        <v>296.2291</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.26</v>
+        <v>0.6617</v>
       </c>
       <c r="B13" s="0">
-        <v>294.5563</v>
+        <v>296.648</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.28</v>
+        <v>0.6284</v>
       </c>
       <c r="B14" s="0">
-        <v>295.2237</v>
+        <v>296.648</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3</v>
+        <v>0.5918</v>
       </c>
       <c r="B15" s="0">
-        <v>295.0698</v>
+        <v>296.648</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.32</v>
+        <v>0.5367</v>
       </c>
       <c r="B16" s="0">
-        <v>295.116</v>
+        <v>297.067</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.34</v>
+        <v>0.5023</v>
       </c>
       <c r="B17" s="0">
-        <v>295.3913</v>
+        <v>296.648</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.36</v>
+        <v>0.4668</v>
       </c>
       <c r="B18" s="0">
-        <v>295.5447</v>
+        <v>297.067</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.38</v>
+        <v>0.4323</v>
       </c>
       <c r="B19" s="0">
-        <v>295.8272</v>
+        <v>297.067</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4</v>
+        <v>0.3991</v>
       </c>
       <c r="B20" s="0">
-        <v>295.9323</v>
+        <v>297.067</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.42</v>
+        <v>0.3635</v>
       </c>
       <c r="B21" s="0">
-        <v>296.0696</v>
+        <v>296.648</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.44</v>
+        <v>0.3234</v>
       </c>
       <c r="B22" s="0">
-        <v>295.983</v>
+        <v>296.2291</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.46</v>
+        <v>0.2913</v>
       </c>
       <c r="B23" s="0">
-        <v>296.0887</v>
+        <v>295.8101</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.48</v>
+        <v>0.2535</v>
       </c>
       <c r="B24" s="0">
-        <v>295.8914</v>
+        <v>295.3911</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.5</v>
+        <v>0.2248</v>
       </c>
       <c r="B25" s="0">
-        <v>295.9436</v>
+        <v>294.5531</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.52</v>
+        <v>0.2087</v>
       </c>
       <c r="B26" s="0">
-        <v>296.2454</v>
+        <v>294.5531</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.54</v>
+        <v>0.1915</v>
       </c>
       <c r="B27" s="0">
-        <v>296.2179</v>
+        <v>294.1341</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.56</v>
+        <v>0.1743</v>
       </c>
       <c r="B28" s="0">
-        <v>296.2775</v>
+        <v>293.7151</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.58</v>
+        <v>0.1606</v>
       </c>
       <c r="B29" s="0">
-        <v>296.2262</v>
+        <v>293.7151</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6</v>
+        <v>0.1239</v>
       </c>
       <c r="B30" s="0">
-        <v>296.0768</v>
+        <v>291.6201</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.62</v>
+        <v>0.0918</v>
       </c>
       <c r="B31" s="0">
-        <v>296.1058</v>
+        <v>289.9441</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.64</v>
+        <v>0.0494</v>
       </c>
       <c r="B32" s="0">
-        <v>295.8254</v>
+        <v>285.7542</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.66</v>
+        <v>0.0287</v>
       </c>
       <c r="B33" s="0">
-        <v>295.8262</v>
+        <v>281.1453</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.68</v>
+        <v>0.0036</v>
       </c>
       <c r="B34" s="0">
-        <v>295.9824</v>
+        <v>261.0335</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.7</v>
+        <v>0.0003</v>
       </c>
       <c r="B35" s="0">
-        <v>295.867</v>
+        <v>222.486</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.72</v>
+        <v>-0.0007</v>
       </c>
       <c r="B36" s="0">
-        <v>295.8962</v>
+        <v>180.1676</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.74</v>
+        <v>0.0005</v>
       </c>
       <c r="B37" s="0">
-        <v>295.5684</v>
+        <v>165.0838</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.76</v>
+        <v>-0.0017</v>
       </c>
       <c r="B38" s="0">
-        <v>295.5687</v>
+        <v>150.419</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.78</v>
+        <v>-0.0005</v>
       </c>
       <c r="B39" s="0">
-        <v>295.361</v>
+        <v>134.9162</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.8</v>
+        <v>0.0007</v>
       </c>
       <c r="B40" s="0">
-        <v>295.3201</v>
+        <v>119.8324</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.82</v>
+        <v>-0.0016</v>
       </c>
       <c r="B41" s="0">
-        <v>295.3646</v>
+        <v>106.0056</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.84</v>
+        <v>0.0008</v>
       </c>
       <c r="B42" s="0">
-        <v>295.2962</v>
+        <v>89.6648</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.86</v>
+        <v>-0.0002</v>
       </c>
       <c r="B43" s="0">
-        <v>295.6039</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B44" s="0">
-        <v>295.4604</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B45" s="0">
-        <v>295.3781</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B46" s="0">
-        <v>294.9668</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B47" s="0">
-        <v>294.8879</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B48" s="0">
-        <v>295.4251</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B49" s="0">
-        <v>295.8137</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0517</v>
-      </c>
-      <c r="B50" s="0">
-        <v>285.3352</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0322</v>
-      </c>
-      <c r="B51" s="0">
-        <v>281.1453</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0059</v>
-      </c>
-      <c r="B52" s="0">
-        <v>261.0335</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0003</v>
-      </c>
-      <c r="B53" s="0">
-        <v>224.162</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0005</v>
-      </c>
-      <c r="B54" s="0">
-        <v>180.5866</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>-0.0006</v>
-      </c>
-      <c r="B55" s="0">
-        <v>165.0838</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.0017</v>
-      </c>
-      <c r="B56" s="0">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0">
-        <v>0.0006</v>
-      </c>
-      <c r="B57" s="0">
-        <v>135.7542</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0">
-        <v>-0.0005</v>
-      </c>
-      <c r="B58" s="0">
-        <v>119.8324</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0">
-        <v>-0.0004</v>
-      </c>
-      <c r="B59" s="0">
-        <v>104.7486</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="0">
-        <v>-0.0003</v>
-      </c>
-      <c r="B60" s="0">
-        <v>89.6648</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="0">
-        <v>-0.0002</v>
-      </c>
-      <c r="B61" s="0">
         <v>43.9944</v>
       </c>
     </row>
-    <row r="62"/>
+    <row r="44"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4989,7 +4677,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5010,453 +4698,317 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.06</v>
+        <v>0.9933</v>
       </c>
       <c r="B3" s="0">
-        <v>235.7236</v>
+        <v>243.4358</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.08</v>
+        <v>0.975</v>
       </c>
       <c r="B4" s="0">
-        <v>238.9746</v>
+        <v>242.5978</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1</v>
+        <v>0.9429</v>
       </c>
       <c r="B5" s="0">
-        <v>240.0771</v>
+        <v>242.1788</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.12</v>
+        <v>0.9073</v>
       </c>
       <c r="B6" s="0">
-        <v>240.6292</v>
+        <v>242.1788</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.14</v>
+        <v>0.8706</v>
       </c>
       <c r="B7" s="0">
-        <v>241.1196</v>
+        <v>242.1788</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.16</v>
+        <v>0.8362</v>
       </c>
       <c r="B8" s="0">
-        <v>241.482</v>
+        <v>242.1788</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.18</v>
+        <v>0.8007</v>
       </c>
       <c r="B9" s="0">
-        <v>241.6122</v>
+        <v>242.1788</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2</v>
+        <v>0.7686</v>
       </c>
       <c r="B10" s="0">
-        <v>242.1929</v>
+        <v>243.0168</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.22</v>
+        <v>0.7307</v>
       </c>
       <c r="B11" s="0">
-        <v>242.5379</v>
+        <v>243.0168</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.24</v>
+        <v>0.6963</v>
       </c>
       <c r="B12" s="0">
-        <v>243.3186</v>
+        <v>242.5978</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.26</v>
+        <v>0.6608</v>
       </c>
       <c r="B13" s="0">
-        <v>243.6111</v>
+        <v>243.0168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.28</v>
+        <v>0.6287</v>
       </c>
       <c r="B14" s="0">
-        <v>243.4866</v>
+        <v>243.0168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3</v>
+        <v>0.5931</v>
       </c>
       <c r="B15" s="0">
-        <v>243.8191</v>
+        <v>243.4358</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.32</v>
+        <v>0.5564</v>
       </c>
       <c r="B16" s="0">
-        <v>243.6676</v>
+        <v>243.4358</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.34</v>
+        <v>0.5564</v>
       </c>
       <c r="B17" s="0">
-        <v>244.0234</v>
+        <v>243.4358</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.36</v>
+        <v>0.522</v>
       </c>
       <c r="B18" s="0">
-        <v>244.3512</v>
+        <v>243.4358</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.38</v>
+        <v>0.4681</v>
       </c>
       <c r="B19" s="0">
-        <v>244.384</v>
+        <v>243.8547</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4</v>
+        <v>0.4314</v>
       </c>
       <c r="B20" s="0">
-        <v>244.2322</v>
+        <v>243.8547</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.42</v>
+        <v>0.3993</v>
       </c>
       <c r="B21" s="0">
-        <v>243.9942</v>
+        <v>243.8547</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.44</v>
+        <v>0.3626</v>
       </c>
       <c r="B22" s="0">
-        <v>244.3687</v>
+        <v>243.4358</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.46</v>
+        <v>0.3248</v>
       </c>
       <c r="B23" s="0">
-        <v>244.0921</v>
+        <v>243.4358</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.48</v>
+        <v>0.2949</v>
       </c>
       <c r="B24" s="0">
-        <v>244.677</v>
+        <v>243.0168</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.52</v>
+        <v>0.2582</v>
       </c>
       <c r="B25" s="0">
-        <v>244.397</v>
+        <v>242.5978</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.54</v>
+        <v>0.225</v>
       </c>
       <c r="B26" s="0">
-        <v>244.232</v>
+        <v>242.1788</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.56</v>
+        <v>0.2066</v>
       </c>
       <c r="B27" s="0">
-        <v>244.1953</v>
+        <v>241.7598</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.58</v>
+        <v>0.1917</v>
       </c>
       <c r="B28" s="0">
-        <v>244.0571</v>
+        <v>241.7598</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6</v>
+        <v>0.1757</v>
       </c>
       <c r="B29" s="0">
-        <v>244.0726</v>
+        <v>241.3408</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.62</v>
+        <v>0.1585</v>
       </c>
       <c r="B30" s="0">
-        <v>243.7695</v>
+        <v>240.9218</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.64</v>
+        <v>0.1229</v>
       </c>
       <c r="B31" s="0">
-        <v>244.0564</v>
+        <v>240.5028</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.66</v>
+        <v>0.0908</v>
       </c>
       <c r="B32" s="0">
-        <v>243.9415</v>
+        <v>239.2458</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.68</v>
+        <v>0.0518</v>
       </c>
       <c r="B33" s="0">
-        <v>243.6288</v>
+        <v>236.3128</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.7</v>
+        <v>0.0312</v>
       </c>
       <c r="B34" s="0">
-        <v>243.7646</v>
+        <v>233.3799</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.72</v>
+        <v>0.0037</v>
       </c>
       <c r="B35" s="0">
-        <v>243.5525</v>
+        <v>218.2961</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.74</v>
+        <v>-0.0007</v>
       </c>
       <c r="B36" s="0">
-        <v>243.6916</v>
+        <v>185.1955</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.76</v>
+        <v>-0.0017</v>
       </c>
       <c r="B37" s="0">
-        <v>243.5513</v>
+        <v>147.486</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.78</v>
+        <v>-0.0005</v>
       </c>
       <c r="B38" s="0">
-        <v>243.7068</v>
+        <v>132.8212</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.8</v>
+        <v>-0.0004</v>
       </c>
       <c r="B39" s="0">
-        <v>243.6105</v>
+        <v>93.4358</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.82</v>
+        <v>-0.0015</v>
       </c>
       <c r="B40" s="0">
-        <v>243.3071</v>
+        <v>78.7709</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.84</v>
+        <v>-0.0013</v>
       </c>
       <c r="B41" s="0">
-        <v>243.4316</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B42" s="0">
-        <v>243.0069</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B43" s="0">
-        <v>243.124</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B44" s="0">
-        <v>243.0574</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B45" s="0">
-        <v>243.1958</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B46" s="0">
-        <v>243.1783</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B47" s="0">
-        <v>242.9861</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B48" s="0">
-        <v>243.0543</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.4979</v>
-      </c>
-      <c r="B49" s="0">
-        <v>243.8547</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0335</v>
-      </c>
-      <c r="B50" s="0">
-        <v>232.1229</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0072</v>
-      </c>
-      <c r="B51" s="0">
-        <v>217.8771</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>-0.0007</v>
-      </c>
-      <c r="B52" s="0">
-        <v>184.7765</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>-0.0006</v>
-      </c>
-      <c r="B53" s="0">
-        <v>145.8101</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>-0.0005</v>
-      </c>
-      <c r="B54" s="0">
-        <v>132.8212</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>-0.0004</v>
-      </c>
-      <c r="B55" s="0">
-        <v>93.4358</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>-0.0014</v>
-      </c>
-      <c r="B56" s="0">
-        <v>77.933</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0">
-        <v>-0.0002</v>
-      </c>
-      <c r="B57" s="0">
-        <v>38.5475</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0">
-        <v>0.9933</v>
-      </c>
-      <c r="B58" s="0">
-        <v>243.8547</v>
-      </c>
-    </row>
-    <row r="59"/>
+        <v>38.9665</v>
+      </c>
+    </row>
+    <row r="42"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -5465,7 +5017,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5486,429 +5038,293 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.08</v>
+        <v>0.9912</v>
       </c>
       <c r="B3" s="0">
-        <v>208.6819</v>
+        <v>212.4302</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1</v>
+        <v>0.9751</v>
       </c>
       <c r="B4" s="0">
-        <v>209.3101</v>
+        <v>212.0112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.12</v>
+        <v>0.9407</v>
       </c>
       <c r="B5" s="0">
-        <v>210.3556</v>
+        <v>212.0112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.14</v>
+        <v>0.9052</v>
       </c>
       <c r="B6" s="0">
-        <v>210.9838</v>
+        <v>211.5922</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.16</v>
+        <v>0.8719</v>
       </c>
       <c r="B7" s="0">
-        <v>211.4748</v>
+        <v>211.5922</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.18</v>
+        <v>0.8363</v>
       </c>
       <c r="B8" s="0">
-        <v>211.7212</v>
+        <v>212.4302</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2</v>
+        <v>0.8008</v>
       </c>
       <c r="B9" s="0">
-        <v>212.0979</v>
+        <v>212.4302</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.22</v>
+        <v>0.7675</v>
       </c>
       <c r="B10" s="0">
-        <v>212.4634</v>
+        <v>212.4302</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.24</v>
+        <v>0.732</v>
       </c>
       <c r="B11" s="0">
-        <v>212.6935</v>
+        <v>212.4302</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.26</v>
+        <v>0.6976</v>
       </c>
       <c r="B12" s="0">
-        <v>212.8026</v>
+        <v>212.8492</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.28</v>
+        <v>0.6632</v>
       </c>
       <c r="B13" s="0">
-        <v>212.9024</v>
+        <v>212.8492</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3</v>
+        <v>0.6265</v>
       </c>
       <c r="B14" s="0">
-        <v>213.0787</v>
+        <v>212.8492</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.32</v>
+        <v>0.5921</v>
       </c>
       <c r="B15" s="0">
-        <v>213.2565</v>
+        <v>212.8492</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.34</v>
+        <v>0.5565</v>
       </c>
       <c r="B16" s="0">
-        <v>213.2951</v>
+        <v>213.2682</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.36</v>
+        <v>0.5233</v>
       </c>
       <c r="B17" s="0">
-        <v>213.3483</v>
+        <v>213.2682</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.38</v>
+        <v>0.4877</v>
       </c>
       <c r="B18" s="0">
-        <v>213.5114</v>
+        <v>213.6872</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4</v>
+        <v>0.4338</v>
       </c>
       <c r="B19" s="0">
-        <v>213.6639</v>
+        <v>213.2682</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.42</v>
+        <v>0.3994</v>
       </c>
       <c r="B20" s="0">
-        <v>213.6908</v>
+        <v>213.2682</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.44</v>
+        <v>0.3627</v>
       </c>
       <c r="B21" s="0">
-        <v>213.7363</v>
+        <v>213.2682</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.46</v>
+        <v>0.3283</v>
       </c>
       <c r="B22" s="0">
-        <v>213.7176</v>
+        <v>213.2682</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.48</v>
+        <v>0.2916</v>
       </c>
       <c r="B23" s="0">
-        <v>213.6994</v>
+        <v>213.2682</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5</v>
+        <v>0.2595</v>
       </c>
       <c r="B24" s="0">
-        <v>213.5818</v>
+        <v>212.8492</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.52</v>
+        <v>0.224</v>
       </c>
       <c r="B25" s="0">
-        <v>213.4117</v>
+        <v>212.4302</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.54</v>
+        <v>0.201</v>
       </c>
       <c r="B26" s="0">
-        <v>213.3911</v>
+        <v>212.0112</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.56</v>
+        <v>0.1884</v>
       </c>
       <c r="B27" s="0">
-        <v>213.3576</v>
+        <v>211.5922</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.58</v>
+        <v>0.1735</v>
       </c>
       <c r="B28" s="0">
-        <v>213.3553</v>
+        <v>211.1732</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6</v>
+        <v>0.1597</v>
       </c>
       <c r="B29" s="0">
-        <v>213.2561</v>
+        <v>211.1732</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.62</v>
+        <v>0.1253</v>
       </c>
       <c r="B30" s="0">
-        <v>213.0371</v>
+        <v>210.3352</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.64</v>
+        <v>0.0932</v>
       </c>
       <c r="B31" s="0">
-        <v>212.9634</v>
+        <v>209.4972</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.66</v>
+        <v>0.0543</v>
       </c>
       <c r="B32" s="0">
-        <v>212.9662</v>
+        <v>206.9832</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.68</v>
+        <v>0.005</v>
       </c>
       <c r="B33" s="0">
-        <v>212.9681</v>
+        <v>191.4804</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.7</v>
+        <v>-0.0006</v>
       </c>
       <c r="B34" s="0">
-        <v>212.9014</v>
+        <v>157.1229</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.72</v>
+        <v>-0.0005</v>
       </c>
       <c r="B35" s="0">
-        <v>212.6861</v>
+        <v>141.6201</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.74</v>
+        <v>0.0007</v>
       </c>
       <c r="B36" s="0">
-        <v>212.6143</v>
+        <v>127.3743</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.76</v>
+        <v>-0.0003</v>
       </c>
       <c r="B37" s="0">
-        <v>212.6132</v>
+        <v>73.743</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.78</v>
+        <v>-0.0001</v>
       </c>
       <c r="B38" s="0">
-        <v>212.4774</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B39" s="0">
-        <v>212.2651</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B40" s="0">
-        <v>212.2266</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B41" s="0">
-        <v>212.1899</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B42" s="0">
-        <v>212.1763</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B43" s="0">
-        <v>212.0859</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B44" s="0">
-        <v>211.8688</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B45" s="0">
-        <v>211.8094</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B46" s="0">
-        <v>211.813</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B47" s="0">
-        <v>212.0254</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B48" s="0">
-        <v>212.2911</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0531</v>
-      </c>
-      <c r="B49" s="0">
-        <v>206.5642</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0061</v>
-      </c>
-      <c r="B50" s="0">
-        <v>191.4804</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>-0.0006</v>
-      </c>
-      <c r="B51" s="0">
-        <v>156.7039</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>-0.0005</v>
-      </c>
-      <c r="B52" s="0">
-        <v>142.4581</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0007</v>
-      </c>
-      <c r="B53" s="0">
-        <v>127.3743</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0009</v>
-      </c>
-      <c r="B54" s="0">
-        <v>74.162</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>-0.0013</v>
-      </c>
-      <c r="B55" s="0">
         <v>36.0335</v>
       </c>
     </row>
-    <row r="56"/>
+    <row r="39"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 64 Effects of oxygen content/Data64_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 64 Effects of oxygen content/Data64_all_graphs_excel.xlsx
@@ -5,10 +5,10 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2 ETP-200-ACF  0-1-0-300" sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2 ETP-250-ACF  0-1-0-300" sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2 ETP-300-ACF  0-1-0-300" sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 2 ETP-ACF  0-1-0-300 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2 ETP-200-ACF  0&amp;1&amp;0&amp;300" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 ETP-250-ACF  0&amp;1&amp;0&amp;300" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 ETP-300-ACF  0&amp;1&amp;0&amp;300" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 ETP-ACF  0&amp;1&amp;0&amp;300 " sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -168,12 +168,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 ETP-200-ACF  0-1-0-300'!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 ETP-200-ACF  0&amp;1&amp;0&amp;300'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 ETP-200-ACF  0-1-0-300'!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 ETP-200-ACF  0&amp;1&amp;0&amp;300'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -482,12 +482,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 ETP-250-ACF  0-1-0-300'!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 ETP-250-ACF  0&amp;1&amp;0&amp;300'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 ETP-250-ACF  0-1-0-300'!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 ETP-250-ACF  0&amp;1&amp;0&amp;300'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -796,12 +796,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 ETP-300-ACF  0-1-0-300'!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 ETP-300-ACF  0&amp;1&amp;0&amp;300'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 ETP-300-ACF  0-1-0-300'!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 ETP-300-ACF  0&amp;1&amp;0&amp;300'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1110,12 +1110,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 ETP-ACF  0-1-0-300 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 ETP-ACF  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 ETP-ACF  0-1-0-300 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 ETP-ACF  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
